--- a/Julia Fractal Final/Tiempos.xlsx
+++ b/Julia Fractal Final/Tiempos.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -394,11 +391,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="379161520"/>
-        <c:axId val="379164656"/>
+        <c:axId val="272420528"/>
+        <c:axId val="272422096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="379161520"/>
+        <c:axId val="272420528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,12 +503,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379164656"/>
+        <c:crossAx val="272422096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="379164656"/>
+        <c:axId val="272422096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +616,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379161520"/>
+        <c:crossAx val="272420528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -897,11 +894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441571600"/>
-        <c:axId val="441571992"/>
+        <c:axId val="274160552"/>
+        <c:axId val="274164472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441571600"/>
+        <c:axId val="274160552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,12 +1006,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441571992"/>
+        <c:crossAx val="274164472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441571992"/>
+        <c:axId val="274164472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1119,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441571600"/>
+        <c:crossAx val="274160552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1351,11 +1348,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="384935136"/>
-        <c:axId val="384943760"/>
+        <c:axId val="274158200"/>
+        <c:axId val="274157024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="384935136"/>
+        <c:axId val="274158200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,8 +1432,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1459,12 +1457,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384943760"/>
+        <c:crossAx val="274157024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384943760"/>
+        <c:axId val="274157024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,7 +1572,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384935136"/>
+        <c:crossAx val="274158200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3381,102 +3379,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Enteros"/>
-      <sheetName val="Float"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="A4">
-            <v>1</v>
-          </cell>
-          <cell r="D4">
-            <v>1.7E-5</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2</v>
-          </cell>
-          <cell r="D5">
-            <v>5.7000000000000003E-5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>3</v>
-          </cell>
-          <cell r="D6">
-            <v>7.4999999999999993E-5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>4</v>
-          </cell>
-          <cell r="D7">
-            <v>1.3376000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>5</v>
-          </cell>
-          <cell r="D8">
-            <v>1.4088E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>6</v>
-          </cell>
-          <cell r="D9">
-            <v>5.2593000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>7</v>
-          </cell>
-          <cell r="D10">
-            <v>0.32921699999999998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>8</v>
-          </cell>
-          <cell r="D11">
-            <v>1.6356630000000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>9</v>
-          </cell>
-          <cell r="D12">
-            <v>9.6931180000000001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>10</v>
-          </cell>
-          <cell r="D13">
-            <v>30.109003000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -3743,7 +3645,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
